--- a/Docs/Bao cao lan 2/ThietKeChiTiet_car_registration.xlsx
+++ b/Docs/Bao cao lan 2/ThietKeChiTiet_car_registration.xlsx
@@ -593,7 +593,7 @@
     <t xml:space="preserve">Lệnh update lên Server</t>
   </si>
   <si>
-    <t xml:space="preserve">api/car-registrations</t>
+    <t xml:space="preserve">post api/car-registrations</t>
   </si>
   <si>
     <t xml:space="preserve">4. Xử lý đăng ký</t>
@@ -1973,9 +1973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1985,7 +1985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1613880" y="9840960"/>
-          <a:ext cx="5477040" cy="417960"/>
+          <a:ext cx="5476680" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2026,9 +2026,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2038,7 +2038,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1613880" y="9840960"/>
-          <a:ext cx="5477040" cy="417960"/>
+          <a:ext cx="5476680" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,9 +2074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2086,7 +2086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2145960" y="5284800"/>
-          <a:ext cx="6084360" cy="3402000"/>
+          <a:ext cx="6084000" cy="3401640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,9 +2118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2130,7 +2130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4565880" y="5042520"/>
-          <a:ext cx="1195560" cy="423720"/>
+          <a:ext cx="1195200" cy="423360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2188,9 +2188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2200,7 +2200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4628880" y="7954560"/>
-          <a:ext cx="952560" cy="650160"/>
+          <a:ext cx="952200" cy="649800"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2256,9 +2256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>192240</xdr:colOff>
+      <xdr:colOff>191880</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>223560</xdr:rowOff>
+      <xdr:rowOff>223200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2272,7 +2272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8622720" y="6094800"/>
-          <a:ext cx="849960" cy="948600"/>
+          <a:ext cx="849600" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2293,9 +2293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2309,7 +2309,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4393800" y="5845320"/>
-          <a:ext cx="1359000" cy="1529640"/>
+          <a:ext cx="1358640" cy="1529280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2330,9 +2330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2342,7 +2342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="626760" y="6476760"/>
-          <a:ext cx="1017000" cy="408960"/>
+          <a:ext cx="1016640" cy="408600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2504,9 +2504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>41400</xdr:colOff>
+      <xdr:colOff>41040</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2516,7 +2516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8638560" y="7074000"/>
-          <a:ext cx="894960" cy="394560"/>
+          <a:ext cx="894600" cy="394200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2614,9 +2614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2626,7 +2626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2017440" y="1791000"/>
-          <a:ext cx="5477400" cy="417600"/>
+          <a:ext cx="5477040" cy="417240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2662,9 +2662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>211680</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2678,7 +2678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1287000" y="1378440"/>
-          <a:ext cx="2307960" cy="4610880"/>
+          <a:ext cx="2307600" cy="4610520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,9 +2699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2715,7 +2715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4447080" y="1364760"/>
-          <a:ext cx="2315160" cy="4620960"/>
+          <a:ext cx="2314800" cy="4620600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2736,9 +2736,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2748,7 +2748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1613880" y="9840960"/>
-          <a:ext cx="5477040" cy="417960"/>
+          <a:ext cx="5476680" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2789,9 +2789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2801,7 +2801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1613880" y="4325760"/>
-          <a:ext cx="5477040" cy="418320"/>
+          <a:ext cx="5476680" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2837,9 +2837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2849,7 +2849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1613880" y="6859440"/>
-          <a:ext cx="5477040" cy="484920"/>
+          <a:ext cx="5476680" cy="484560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2885,9 +2885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2897,7 +2897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1613880" y="7097760"/>
-          <a:ext cx="5477040" cy="417600"/>
+          <a:ext cx="5476680" cy="417240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2933,9 +2933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180000</xdr:colOff>
+      <xdr:colOff>179640</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2944,13 +2944,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="0" t="0" r="0" b="45721"/>
+        <a:srcRect l="0" t="0" r="0" b="45716"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="666360" y="7957440"/>
-          <a:ext cx="1839600" cy="1993320"/>
+          <a:ext cx="1839240" cy="1992960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14932,8 +14932,8 @@
   </sheetPr>
   <dimension ref="A1:BF130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A37" colorId="64" zoomScale="162" zoomScaleNormal="100" zoomScalePageLayoutView="162" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N45" activeCellId="0" sqref="N45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A16" colorId="64" zoomScale="162" zoomScaleNormal="100" zoomScalePageLayoutView="162" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W66" activeCellId="0" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21154,8 +21154,8 @@
   </sheetPr>
   <dimension ref="A1:BF130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A73" colorId="64" zoomScale="150" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG89" activeCellId="0" sqref="AG89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A70" colorId="64" zoomScale="150" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M91" activeCellId="0" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
